--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_VOC.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>156.1827248502504</v>
+        <v>34.70727218894454</v>
       </c>
       <c r="C2">
-        <v>0.0229935252839643</v>
+        <v>0.0051096722853254</v>
       </c>
       <c r="D2">
-        <v>9.378564857121555</v>
+        <v>2.084125523804791</v>
       </c>
       <c r="E2">
-        <v>4.592525971684236</v>
+        <v>1.020561327040941</v>
       </c>
       <c r="F2">
-        <v>3.16819100017452</v>
+        <v>0.7040424444832267</v>
       </c>
       <c r="G2">
-        <v>92.72337787751395</v>
+        <v>20.60519508389201</v>
       </c>
       <c r="H2">
-        <v>0.5782555818096466</v>
+        <v>0.1285012404021437</v>
       </c>
       <c r="I2">
-        <v>266.6466336638383</v>
+        <v>59.25480748085299</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>160.5268801109858</v>
+        <v>35.67264002466352</v>
       </c>
       <c r="C3">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D3">
-        <v>7.14557322447357</v>
+        <v>1.587905160994125</v>
       </c>
       <c r="E3">
-        <v>3.490319738480018</v>
+        <v>0.7756266085511154</v>
       </c>
       <c r="F3">
-        <v>3.051713389873985</v>
+        <v>0.6781585310831079</v>
       </c>
       <c r="G3">
-        <v>77.84184809470308</v>
+        <v>17.29818846548958</v>
       </c>
       <c r="H3">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I3">
-        <v>252.4467361333751</v>
+        <v>56.09927469630559</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>164.0435772268193</v>
+        <v>36.45412827262653</v>
       </c>
       <c r="C4">
-        <v>0.03199099169942859</v>
+        <v>0.007109109266539687</v>
       </c>
       <c r="D4">
-        <v>5.135880755090374</v>
+        <v>1.141306834464528</v>
       </c>
       <c r="E4">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F4">
-        <v>2.888644735453239</v>
+        <v>0.6419210523229419</v>
       </c>
       <c r="G4">
-        <v>38.92092404735154</v>
+        <v>8.649094232744789</v>
       </c>
       <c r="H4">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I4">
-        <v>216.1586545055965</v>
+        <v>48.03525655679925</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>178.1103656901531</v>
+        <v>39.58008126447849</v>
       </c>
       <c r="C5">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D5">
-        <v>8.038769877532767</v>
+        <v>1.786393306118393</v>
       </c>
       <c r="E5">
-        <v>5.694732204888456</v>
+        <v>1.265496045530767</v>
       </c>
       <c r="F5">
-        <v>2.143188029529822</v>
+        <v>0.4762640065621827</v>
       </c>
       <c r="G5">
-        <v>25.18412732475689</v>
+        <v>5.596472738834866</v>
       </c>
       <c r="H5">
-        <v>0.5782555818096466</v>
+        <v>0.1285012404021437</v>
       </c>
       <c r="I5">
-        <v>219.7784305448983</v>
+        <v>48.83965123219964</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>213.6910659209387</v>
+        <v>47.48690353798639</v>
       </c>
       <c r="C6">
-        <v>0.03299071019003572</v>
+        <v>0.007331268931119053</v>
       </c>
       <c r="D6">
-        <v>7.368872387738366</v>
+        <v>1.637527197275193</v>
       </c>
       <c r="E6">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F6">
-        <v>1.700573110387793</v>
+        <v>0.3779051356417319</v>
       </c>
       <c r="G6">
-        <v>14.88152978281088</v>
+        <v>3.307006618402419</v>
       </c>
       <c r="H6">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I6">
-        <v>241.8610186626003</v>
+        <v>53.74689303613341</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>185.3506244580455</v>
+        <v>41.18902765734348</v>
       </c>
       <c r="C7">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D7">
-        <v>7.14557322447357</v>
+        <v>1.587905160994125</v>
       </c>
       <c r="E7">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F7">
-        <v>0.9784119265244839</v>
+        <v>0.2174248725609964</v>
       </c>
       <c r="G7">
-        <v>11.44733060216222</v>
+        <v>2.543851244924939</v>
       </c>
       <c r="H7">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I7">
-        <v>211.5030384964504</v>
+        <v>47.00067522143345</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>147.9081434012305</v>
+        <v>32.86847631138457</v>
       </c>
       <c r="C8">
-        <v>0.02599268075578573</v>
+        <v>0.005776151279063496</v>
       </c>
       <c r="D8">
-        <v>3.796085775501584</v>
+        <v>0.8435746167781298</v>
       </c>
       <c r="E8">
-        <v>5.327330127153715</v>
+        <v>1.183851139367492</v>
       </c>
       <c r="F8">
-        <v>1.118185058885125</v>
+        <v>0.2484855686411388</v>
       </c>
       <c r="G8">
-        <v>13.73679672259466</v>
+        <v>3.052621493909928</v>
       </c>
       <c r="H8">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I8">
-        <v>172.2016615570262</v>
+        <v>38.26703590156139</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>129.9109287496123</v>
+        <v>28.86909527769161</v>
       </c>
       <c r="C9">
-        <v>0.03998873962428573</v>
+        <v>0.008886386583174609</v>
       </c>
       <c r="D9">
-        <v>4.465983265295983</v>
+        <v>0.9924407256213293</v>
       </c>
       <c r="E9">
-        <v>8.082845710164252</v>
+        <v>1.796187935592057</v>
       </c>
       <c r="F9">
-        <v>0.675570139743096</v>
+        <v>0.150126697720688</v>
       </c>
       <c r="G9">
-        <v>19.46046202367577</v>
+        <v>4.324547116372394</v>
       </c>
       <c r="H9">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I9">
-        <v>162.7803425235681</v>
+        <v>36.17340944968179</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>114.3960885327</v>
+        <v>25.42135300726667</v>
       </c>
       <c r="C10">
-        <v>0.01699521434032143</v>
+        <v>0.003776714297849208</v>
       </c>
       <c r="D10">
-        <v>3.349487448971985</v>
+        <v>0.7443305442159964</v>
       </c>
       <c r="E10">
-        <v>4.959928049418976</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F10">
-        <v>0.6522746176829893</v>
+        <v>0.1449499150406643</v>
       </c>
       <c r="G10">
-        <v>10.302597541946</v>
+        <v>2.289466120432444</v>
       </c>
       <c r="H10">
-        <v>0.4336916863572351</v>
+        <v>0.09637593030160779</v>
       </c>
       <c r="I10">
-        <v>134.1110630914175</v>
+        <v>29.80245846475945</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>64.54173530235514</v>
+        <v>14.34260784496781</v>
       </c>
       <c r="C11">
-        <v>0.007997747924857147</v>
+        <v>0.001777277316634922</v>
       </c>
       <c r="D11">
-        <v>1.116495816323996</v>
+        <v>0.2481101814053323</v>
       </c>
       <c r="E11">
-        <v>3.30661869961265</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F11">
-        <v>0.5823880515026688</v>
+        <v>0.1294195670005931</v>
       </c>
       <c r="G11">
-        <v>5.72366530108111</v>
+        <v>1.271925622462469</v>
       </c>
       <c r="H11">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I11">
-        <v>75.64031065743146</v>
+        <v>16.80895792387366</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>44.26901075225638</v>
+        <v>9.837557944945875</v>
       </c>
       <c r="C12">
-        <v>0.007997747924857147</v>
+        <v>0.001777277316634922</v>
       </c>
       <c r="D12">
-        <v>0.8931966530591963</v>
+        <v>0.1984881451242657</v>
       </c>
       <c r="E12">
-        <v>1.285907272071587</v>
+        <v>0.2857571715714636</v>
       </c>
       <c r="F12">
-        <v>0.2795462647212812</v>
+        <v>0.06212139216028471</v>
       </c>
       <c r="G12">
-        <v>4.578932240864887</v>
+        <v>1.017540497969976</v>
       </c>
       <c r="H12">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I12">
-        <v>51.45915482635061</v>
+        <v>11.43536773918903</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>27.30611878176563</v>
+        <v>6.068026395947923</v>
       </c>
       <c r="C13">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D13">
-        <v>0.2232991632647991</v>
+        <v>0.04962203628106641</v>
       </c>
       <c r="F13">
-        <v>0.2562507426611744</v>
+        <v>0.05694460948026097</v>
       </c>
       <c r="G13">
-        <v>3.434199180648665</v>
+        <v>0.763155373477482</v>
       </c>
       <c r="H13">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I13">
-        <v>31.29914784550073</v>
+        <v>6.955366187889056</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>22.13450537612819</v>
+        <v>4.918778972472937</v>
       </c>
       <c r="C14">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D14">
-        <v>1.116495816323996</v>
+        <v>0.2481101814053323</v>
       </c>
       <c r="F14">
-        <v>0.3261373088414947</v>
+        <v>0.07247495752033216</v>
       </c>
       <c r="G14">
-        <v>3.434199180648665</v>
+        <v>0.763155373477482</v>
       </c>
       <c r="H14">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I14">
-        <v>27.16489904381023</v>
+        <v>6.036644231957834</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>16.54916289803978</v>
+        <v>3.677591755119951</v>
       </c>
       <c r="C15">
-        <v>0.004998592453035716</v>
+        <v>0.001110798322896826</v>
       </c>
       <c r="D15">
-        <v>0.4465983265295981</v>
+        <v>0.09924407256213283</v>
       </c>
       <c r="F15">
-        <v>0.2096596985409608</v>
+        <v>0.04659104412021351</v>
       </c>
       <c r="G15">
-        <v>6.868398361297331</v>
+        <v>1.526310746954964</v>
       </c>
       <c r="I15">
-        <v>24.0788178768607</v>
+        <v>5.350848417080158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>14.27365299955931</v>
+        <v>3.171922888790957</v>
       </c>
       <c r="C16">
-        <v>0.004998592453035716</v>
+        <v>0.001110798322896826</v>
       </c>
       <c r="D16">
-        <v>0.4465983265295981</v>
+        <v>0.09924407256213283</v>
       </c>
       <c r="E16">
-        <v>0.9185051943368472</v>
+        <v>0.2041122654081883</v>
       </c>
       <c r="F16">
-        <v>0.186364176480854</v>
+        <v>0.0414142614401898</v>
       </c>
       <c r="G16">
-        <v>5.72366530108111</v>
+        <v>1.271925622462469</v>
       </c>
       <c r="I16">
-        <v>21.55378459044076</v>
+        <v>4.789729908986834</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>27.30611878176563</v>
+        <v>6.068026395947923</v>
       </c>
       <c r="C17">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D17">
-        <v>1.786393306118393</v>
+        <v>0.3969762902485313</v>
       </c>
       <c r="E17">
-        <v>0.1837010388673694</v>
+        <v>0.04082245308163764</v>
       </c>
       <c r="F17">
-        <v>0.372728352961708</v>
+        <v>0.0828285228803796</v>
       </c>
       <c r="G17">
-        <v>5.72366530108111</v>
+        <v>1.271925622462469</v>
       </c>
       <c r="I17">
-        <v>35.37860509173785</v>
+        <v>7.861912242608418</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>91.02039593921879</v>
+        <v>20.22675465315974</v>
       </c>
       <c r="C18">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D18">
-        <v>5.135880755090374</v>
+        <v>1.141306834464528</v>
       </c>
       <c r="E18">
-        <v>1.469608310938955</v>
+        <v>0.3265796246531011</v>
       </c>
       <c r="F18">
-        <v>1.141480580945231</v>
+        <v>0.2536623513211625</v>
       </c>
       <c r="G18">
-        <v>21.74992814410822</v>
+        <v>4.833317365357381</v>
       </c>
       <c r="H18">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I18">
-        <v>120.5985731444432</v>
+        <v>26.79968292098739</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>144.3914462853971</v>
+        <v>32.08698806342157</v>
       </c>
       <c r="C19">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D19">
-        <v>5.805778244884772</v>
+        <v>1.290172943307728</v>
       </c>
       <c r="E19">
-        <v>7.899144671296883</v>
+        <v>1.75536548251042</v>
       </c>
       <c r="F19">
-        <v>1.933528330988861</v>
+        <v>0.4296729624419692</v>
       </c>
       <c r="G19">
-        <v>33.19725874627046</v>
+        <v>7.377168610282316</v>
       </c>
       <c r="H19">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I19">
-        <v>193.4510001514509</v>
+        <v>42.98911114476687</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>175.4211267192217</v>
+        <v>38.9824726042715</v>
       </c>
       <c r="C20">
-        <v>0.01699521434032143</v>
+        <v>0.003776714297849208</v>
       </c>
       <c r="D20">
-        <v>4.689282428560777</v>
+        <v>1.042062761902395</v>
       </c>
       <c r="E20">
-        <v>6.980639476960037</v>
+        <v>1.551253217102231</v>
       </c>
       <c r="F20">
-        <v>1.514208933906939</v>
+        <v>0.3364908742015421</v>
       </c>
       <c r="G20">
-        <v>25.18412732475689</v>
+        <v>5.596472738834866</v>
       </c>
       <c r="I20">
-        <v>213.8063800977467</v>
+        <v>47.51252891061038</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>189.0741861101046</v>
+        <v>42.01648580224545</v>
       </c>
       <c r="C21">
-        <v>0.0229935252839643</v>
+        <v>0.0051096722853254</v>
       </c>
       <c r="D21">
-        <v>7.592171551003167</v>
+        <v>1.68714923355626</v>
       </c>
       <c r="E21">
-        <v>5.694732204888456</v>
+        <v>1.265496045530767</v>
       </c>
       <c r="F21">
-        <v>1.817050720688328</v>
+        <v>0.4037890490418505</v>
       </c>
       <c r="G21">
-        <v>30.90779262583798</v>
+        <v>6.868398361297331</v>
       </c>
       <c r="H21">
-        <v>0.6505375295358525</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I21">
-        <v>235.7594642673423</v>
+        <v>52.3909920594094</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>166.5259516615253</v>
+        <v>37.00576703589451</v>
       </c>
       <c r="C22">
-        <v>0.03199099169942859</v>
+        <v>0.007109109266539687</v>
       </c>
       <c r="D22">
-        <v>9.825163183651153</v>
+        <v>2.183369596366924</v>
       </c>
       <c r="E22">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F22">
-        <v>2.981826823693664</v>
+        <v>0.6626281830430368</v>
       </c>
       <c r="G22">
-        <v>69.82871667318956</v>
+        <v>15.51749259404212</v>
       </c>
       <c r="H22">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I22">
-        <v>254.2590041352155</v>
+        <v>56.50200091893678</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>139.0129683435342</v>
+        <v>30.89177074300758</v>
       </c>
       <c r="C23">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D23">
-        <v>4.689282428560777</v>
+        <v>1.042062761902395</v>
       </c>
       <c r="E23">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F23">
-        <v>3.144895478114413</v>
+        <v>0.6988656618032026</v>
       </c>
       <c r="G23">
-        <v>89.28917869686528</v>
+        <v>19.84203971041454</v>
       </c>
       <c r="H23">
-        <v>0.5782555818096466</v>
+        <v>0.1285012404021437</v>
       </c>
       <c r="I23">
-        <v>240.9686962590614</v>
+        <v>53.54859916868033</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>129.2903351409358</v>
+        <v>28.73118558687462</v>
       </c>
       <c r="C24">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D24">
-        <v>5.359179918355178</v>
+        <v>1.190928870745595</v>
       </c>
       <c r="E24">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F24">
-        <v>3.005122345753772</v>
+        <v>0.6678049657230605</v>
       </c>
       <c r="G24">
-        <v>106.4601746001087</v>
+        <v>23.65781657780192</v>
       </c>
       <c r="H24">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I24">
-        <v>248.5466364350942</v>
+        <v>55.23258587446537</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>138.8061038073087</v>
+        <v>30.84580084606861</v>
       </c>
       <c r="C25">
-        <v>0.03898902113367859</v>
+        <v>0.008664226918595246</v>
       </c>
       <c r="D25">
-        <v>6.475675734679167</v>
+        <v>1.439039052150926</v>
       </c>
       <c r="E25">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F25">
-        <v>2.469325338371316</v>
+        <v>0.5487389640825147</v>
       </c>
       <c r="G25">
-        <v>109.8943737807573</v>
+        <v>24.42097195127942</v>
       </c>
       <c r="H25">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I25">
-        <v>261.9818735239259</v>
+        <v>58.218194116428</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>154.5278085604465</v>
+        <v>34.33951301343257</v>
       </c>
       <c r="C26">
-        <v>0.04698676905853574</v>
+        <v>0.01044150423523016</v>
       </c>
       <c r="D26">
-        <v>8.485368204062357</v>
+        <v>1.885637378680525</v>
       </c>
       <c r="E26">
-        <v>3.857721816214759</v>
+        <v>0.8572715147143906</v>
       </c>
       <c r="F26">
-        <v>2.888644735453239</v>
+        <v>0.6419210523229419</v>
       </c>
       <c r="G26">
-        <v>101.8812423592438</v>
+        <v>22.64027607983194</v>
       </c>
       <c r="H26">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I26">
-        <v>271.9769002353841</v>
+        <v>60.43931116341867</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>152.666027734417</v>
+        <v>33.92578394098157</v>
       </c>
       <c r="C27">
-        <v>0.04298789509610717</v>
+        <v>0.009552865576912706</v>
       </c>
       <c r="D27">
-        <v>7.815470714267967</v>
+        <v>1.736771269837326</v>
       </c>
       <c r="E27">
-        <v>3.490319738480018</v>
+        <v>0.7756266085511154</v>
       </c>
       <c r="F27">
-        <v>2.911940257513345</v>
+        <v>0.6470978350029656</v>
       </c>
       <c r="G27">
-        <v>69.82871667318956</v>
+        <v>15.51749259404212</v>
       </c>
       <c r="H27">
-        <v>1.228793111345499</v>
+        <v>0.2730651358545554</v>
       </c>
       <c r="I27">
-        <v>237.9842561243095</v>
+        <v>52.88539024984657</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>159.2856928936329</v>
+        <v>35.39682064302954</v>
       </c>
       <c r="C28">
-        <v>0.04198817660550002</v>
+        <v>0.009330705912333339</v>
       </c>
       <c r="D28">
-        <v>8.485368204062357</v>
+        <v>1.885637378680525</v>
       </c>
       <c r="E28">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F28">
-        <v>2.818758169272917</v>
+        <v>0.6263907042828708</v>
       </c>
       <c r="G28">
-        <v>85.8549795162167</v>
+        <v>19.07888433693703</v>
       </c>
       <c r="H28">
-        <v>0.5059736340834409</v>
+        <v>0.1124385853518758</v>
       </c>
       <c r="I28">
-        <v>261.4015855266907</v>
+        <v>58.08924122815348</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>148.942466082358</v>
+        <v>33.09832579607956</v>
       </c>
       <c r="C29">
-        <v>0.03598986566185716</v>
+        <v>0.007997747924857149</v>
       </c>
       <c r="D29">
-        <v>7.592171551003167</v>
+        <v>1.68714923355626</v>
       </c>
       <c r="E29">
-        <v>4.959928049418976</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F29">
-        <v>1.933528330988861</v>
+        <v>0.4296729624419692</v>
       </c>
       <c r="G29">
-        <v>69.82871667318956</v>
+        <v>15.51749259404212</v>
       </c>
       <c r="H29">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I29">
-        <v>233.6542102912514</v>
+        <v>51.92315784250032</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>169.4220551686821</v>
+        <v>37.6493455930405</v>
       </c>
       <c r="C30">
-        <v>0.01599549584971429</v>
+        <v>0.003554554633269843</v>
       </c>
       <c r="D30">
-        <v>8.708667367327163</v>
+        <v>1.935259414961592</v>
       </c>
       <c r="E30">
-        <v>3.490319738480018</v>
+        <v>0.7756266085511154</v>
       </c>
       <c r="F30">
-        <v>1.863641764808541</v>
+        <v>0.414142614401898</v>
       </c>
       <c r="G30">
-        <v>66.39451749254091</v>
+        <v>14.75433722056463</v>
       </c>
       <c r="H30">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I30">
-        <v>250.0397609231409</v>
+        <v>55.56439131625354</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>165.0778999079468</v>
+        <v>36.68397775732151</v>
       </c>
       <c r="C31">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="D31">
-        <v>3.796085775501584</v>
+        <v>0.8435746167781298</v>
       </c>
       <c r="E31">
-        <v>6.6132373992253</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F31">
-        <v>0.9784119265244839</v>
+        <v>0.2174248725609964</v>
       </c>
       <c r="G31">
-        <v>51.51298770972996</v>
+        <v>11.44733060216222</v>
       </c>
       <c r="I31">
-        <v>227.9806221559093</v>
+        <v>50.66236047909096</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>146.8738207201031</v>
+        <v>32.63862682668957</v>
       </c>
       <c r="C32">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D32">
-        <v>4.912581591825576</v>
+        <v>1.091684798183462</v>
       </c>
       <c r="E32">
-        <v>7.715443632429518</v>
+        <v>1.714543029428781</v>
       </c>
       <c r="F32">
-        <v>1.025002970644698</v>
+        <v>0.2277784379210439</v>
       </c>
       <c r="G32">
-        <v>40.06565710756779</v>
+        <v>8.903479357237286</v>
       </c>
       <c r="I32">
-        <v>200.6015034889862</v>
+        <v>44.57811188644137</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>117.0853275036314</v>
+        <v>26.01896166747366</v>
       </c>
       <c r="C33">
-        <v>0.01599549584971429</v>
+        <v>0.003554554633269843</v>
       </c>
       <c r="D33">
-        <v>5.135880755090374</v>
+        <v>1.141306834464528</v>
       </c>
       <c r="E33">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F33">
-        <v>0.5823880515026688</v>
+        <v>0.1294195670005931</v>
       </c>
       <c r="G33">
-        <v>17.17099590324332</v>
+        <v>3.815776867387406</v>
       </c>
       <c r="I33">
-        <v>146.4201240696754</v>
+        <v>32.53780534881678</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>92.26158315657179</v>
+        <v>20.50257403479374</v>
       </c>
       <c r="C34">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D34">
-        <v>3.126188285707185</v>
+        <v>0.6947085079349303</v>
       </c>
       <c r="E34">
-        <v>5.327330127153715</v>
+        <v>1.183851139367492</v>
       </c>
       <c r="F34">
-        <v>0.3028417867813879</v>
+        <v>0.06729817484030842</v>
       </c>
       <c r="G34">
-        <v>16.0262628430271</v>
+        <v>3.561391742894912</v>
       </c>
       <c r="I34">
-        <v>117.0532036656566</v>
+        <v>26.01182303681259</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>60.61130911407071</v>
+        <v>13.46917980312682</v>
       </c>
       <c r="C35">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D35">
-        <v>1.563094142853593</v>
+        <v>0.3473542539674652</v>
       </c>
       <c r="E35">
-        <v>3.674020777347389</v>
+        <v>0.8164490616327532</v>
       </c>
       <c r="F35">
-        <v>0.489205963262242</v>
+        <v>0.1087124362804982</v>
       </c>
       <c r="G35">
-        <v>24.03939426454065</v>
+        <v>5.342087614342371</v>
       </c>
       <c r="I35">
-        <v>90.38402229150883</v>
+        <v>20.08533828700196</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>43.44155260735441</v>
+        <v>9.653678357189873</v>
       </c>
       <c r="C36">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D36">
-        <v>1.339794979588794</v>
+        <v>0.2977322176863988</v>
       </c>
       <c r="E36">
-        <v>1.469608310938955</v>
+        <v>0.3265796246531011</v>
       </c>
       <c r="F36">
-        <v>0.3494328309016013</v>
+        <v>0.07765174020035588</v>
       </c>
       <c r="G36">
-        <v>12.59206366237844</v>
+        <v>2.798236369417433</v>
       </c>
       <c r="H36">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I36">
-        <v>59.26873321285083</v>
+        <v>13.17082960285575</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>26.27179610063816</v>
+        <v>5.838176911252924</v>
       </c>
       <c r="C37">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="E37">
-        <v>0.1837010388673694</v>
+        <v>0.04082245308163764</v>
       </c>
       <c r="F37">
-        <v>0.3494328309016013</v>
+        <v>0.07765174020035588</v>
       </c>
       <c r="G37">
-        <v>13.73679672259466</v>
+        <v>3.052621493909928</v>
       </c>
       <c r="I37">
-        <v>40.54472584847361</v>
+        <v>9.009939077438583</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>18.61780826029474</v>
+        <v>4.137290724509945</v>
       </c>
       <c r="C38">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D38">
-        <v>0.6698974897943972</v>
+        <v>0.1488661088431994</v>
       </c>
       <c r="E38">
-        <v>0.1837010388673694</v>
+        <v>0.04082245308163764</v>
       </c>
       <c r="F38">
-        <v>0.372728352961708</v>
+        <v>0.0828285228803796</v>
       </c>
       <c r="G38">
-        <v>4.578932240864887</v>
+        <v>1.017540497969976</v>
       </c>
       <c r="I38">
-        <v>24.42906569372675</v>
+        <v>5.428681265272614</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>12.82560124598083</v>
+        <v>2.850133610217963</v>
       </c>
       <c r="C39">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="D39">
-        <v>1.116495816323996</v>
+        <v>0.2481101814053323</v>
       </c>
       <c r="F39">
-        <v>0.0465910441202135</v>
+        <v>0.01035356536004745</v>
       </c>
       <c r="G39">
-        <v>11.44733060216222</v>
+        <v>2.543851244924939</v>
       </c>
       <c r="I39">
-        <v>25.43801814556847</v>
+        <v>5.65289292123744</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>10.34322681127486</v>
+        <v>2.29849484694997</v>
       </c>
       <c r="C40">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D40">
-        <v>0.2232991632647991</v>
+        <v>0.04962203628106641</v>
       </c>
       <c r="E40">
-        <v>0.9185051943368472</v>
+        <v>0.2041122654081883</v>
       </c>
       <c r="F40">
-        <v>0.2096596985409608</v>
+        <v>0.04659104412021351</v>
       </c>
       <c r="G40">
-        <v>5.72366530108111</v>
+        <v>1.271925622462469</v>
       </c>
       <c r="I40">
-        <v>17.42235504246101</v>
+        <v>3.871634453880224</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>27.30611878176563</v>
+        <v>6.068026395947923</v>
       </c>
       <c r="C41">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D41">
-        <v>0.8931966530591963</v>
+        <v>0.1984881451242657</v>
       </c>
       <c r="E41">
-        <v>0.5511031166021083</v>
+        <v>0.122467359244913</v>
       </c>
       <c r="F41">
-        <v>0.3028417867813879</v>
+        <v>0.06729817484030842</v>
       </c>
       <c r="G41">
-        <v>4.578932240864887</v>
+        <v>1.017540497969976</v>
       </c>
       <c r="I41">
-        <v>33.63619145303564</v>
+        <v>7.474709211785703</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>72.81631675137503</v>
+        <v>16.18140372252778</v>
       </c>
       <c r="C42">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D42">
-        <v>4.019384938766383</v>
+        <v>0.8931966530591963</v>
       </c>
       <c r="E42">
-        <v>2.020711427541063</v>
+        <v>0.4490469838980143</v>
       </c>
       <c r="F42">
-        <v>0.9784119265244839</v>
+        <v>0.2174248725609964</v>
       </c>
       <c r="G42">
-        <v>17.17099590324332</v>
+        <v>3.815776867387406</v>
       </c>
       <c r="I42">
-        <v>97.00682066594088</v>
+        <v>21.55707125909797</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>119.5677019383374</v>
+        <v>26.57060043074165</v>
       </c>
       <c r="C43">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D43">
-        <v>4.689282428560777</v>
+        <v>1.042062761902395</v>
       </c>
       <c r="E43">
-        <v>6.980639476960037</v>
+        <v>1.551253217102231</v>
       </c>
       <c r="F43">
-        <v>2.026710419229288</v>
+        <v>0.450380093162064</v>
       </c>
       <c r="G43">
-        <v>32.0525256860542</v>
+        <v>7.122783485789824</v>
       </c>
       <c r="I43">
-        <v>165.3228582600854</v>
+        <v>36.73841294668564</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>170.0426487773588</v>
+        <v>37.7872552838575</v>
       </c>
       <c r="C44">
-        <v>0.009997184906071432</v>
+        <v>0.002221596645793652</v>
       </c>
       <c r="D44">
-        <v>3.796085775501584</v>
+        <v>0.8435746167781298</v>
       </c>
       <c r="E44">
-        <v>6.980639476960037</v>
+        <v>1.551253217102231</v>
       </c>
       <c r="F44">
-        <v>1.071594014764911</v>
+        <v>0.2381320032810913</v>
       </c>
       <c r="G44">
-        <v>24.03939426454065</v>
+        <v>5.342087614342371</v>
       </c>
       <c r="H44">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I44">
-        <v>206.0849233894845</v>
+        <v>45.79664964210765</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>163.0092545456918</v>
+        <v>36.22427878793151</v>
       </c>
       <c r="C45">
-        <v>0.03199099169942859</v>
+        <v>0.007109109266539687</v>
       </c>
       <c r="D45">
-        <v>5.582479081619974</v>
+        <v>1.240550907026661</v>
       </c>
       <c r="E45">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F45">
-        <v>1.793755198628221</v>
+        <v>0.3986122663618268</v>
       </c>
       <c r="G45">
-        <v>43.49985628821644</v>
+        <v>9.666634730714762</v>
       </c>
       <c r="H45">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I45">
-        <v>218.3201686995691</v>
+        <v>48.51559304434866</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>153.90721495177</v>
+        <v>34.20160332261555</v>
       </c>
       <c r="C46">
-        <v>0.01999436981214286</v>
+        <v>0.004443193291587304</v>
       </c>
       <c r="D46">
-        <v>6.029077408149574</v>
+        <v>1.339794979588794</v>
       </c>
       <c r="E46">
-        <v>5.878433243755819</v>
+        <v>1.306318498612405</v>
       </c>
       <c r="F46">
-        <v>2.37614325013089</v>
+        <v>0.5280318333624199</v>
       </c>
       <c r="G46">
-        <v>58.38138607102731</v>
+        <v>12.97364134911718</v>
       </c>
       <c r="H46">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I46">
-        <v>226.8813770855505</v>
+        <v>50.418083796789</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>119.1539728658864</v>
+        <v>26.47866063686365</v>
       </c>
       <c r="C47">
-        <v>0.03199099169942859</v>
+        <v>0.007109109266539687</v>
       </c>
       <c r="D47">
-        <v>4.465983265295983</v>
+        <v>0.9924407256213293</v>
       </c>
       <c r="E47">
-        <v>4.959928049418976</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F47">
-        <v>2.935235779573452</v>
+        <v>0.6522746176829893</v>
       </c>
       <c r="G47">
-        <v>62.96031831189222</v>
+        <v>13.99118184708716</v>
       </c>
       <c r="H47">
-        <v>1.084229215893087</v>
+        <v>0.2409398257540194</v>
       </c>
       <c r="I47">
-        <v>195.5916584796596</v>
+        <v>43.4648129954799</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>131.5658450394162</v>
+        <v>29.23685445320362</v>
       </c>
       <c r="C48">
-        <v>0.03798930264307145</v>
+        <v>0.008442067254015879</v>
       </c>
       <c r="D48">
-        <v>7.592171551003167</v>
+        <v>1.68714923355626</v>
       </c>
       <c r="E48">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F48">
-        <v>2.469325338371316</v>
+        <v>0.5487389640825147</v>
       </c>
       <c r="G48">
-        <v>48.0787885290813</v>
+        <v>10.68417522868474</v>
       </c>
       <c r="H48">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I48">
-        <v>194.2975085887843</v>
+        <v>43.17722413084098</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>138.8061038073087</v>
+        <v>30.84580084606861</v>
       </c>
       <c r="C49">
-        <v>0.03898902113367859</v>
+        <v>0.008664226918595246</v>
       </c>
       <c r="D49">
-        <v>6.475675734679167</v>
+        <v>1.439039052150926</v>
       </c>
       <c r="E49">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F49">
-        <v>2.469325338371316</v>
+        <v>0.5487389640825147</v>
       </c>
       <c r="G49">
-        <v>109.8943737807573</v>
+        <v>24.42097195127942</v>
       </c>
       <c r="H49">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I49">
-        <v>261.9818735239259</v>
+        <v>58.218194116428</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_VOC.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>34.70727218894454</v>
+        <v>156.1827248502504</v>
       </c>
       <c r="C2">
-        <v>0.0051096722853254</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D2">
-        <v>2.084125523804791</v>
+        <v>9.378564857121555</v>
       </c>
       <c r="E2">
-        <v>1.020561327040941</v>
+        <v>4.592525971684236</v>
       </c>
       <c r="F2">
-        <v>0.7040424444832267</v>
+        <v>3.16819100017452</v>
       </c>
       <c r="G2">
-        <v>20.60519508389201</v>
+        <v>92.72337787751395</v>
       </c>
       <c r="H2">
-        <v>0.1285012404021437</v>
+        <v>0.5782555818096466</v>
       </c>
       <c r="I2">
-        <v>59.25480748085299</v>
+        <v>266.6466336638383</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>35.67264002466352</v>
+        <v>160.5268801109858</v>
       </c>
       <c r="C3">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D3">
-        <v>1.587905160994125</v>
+        <v>7.14557322447357</v>
       </c>
       <c r="E3">
-        <v>0.7756266085511154</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F3">
-        <v>0.6781585310831079</v>
+        <v>3.051713389873985</v>
       </c>
       <c r="G3">
-        <v>17.29818846548958</v>
+        <v>77.84184809470308</v>
       </c>
       <c r="H3">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I3">
-        <v>56.09927469630559</v>
+        <v>252.4467361333751</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>36.45412827262653</v>
+        <v>164.0435772268193</v>
       </c>
       <c r="C4">
-        <v>0.007109109266539687</v>
+        <v>0.03199099169942859</v>
       </c>
       <c r="D4">
-        <v>1.141306834464528</v>
+        <v>5.135880755090374</v>
       </c>
       <c r="E4">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F4">
-        <v>0.6419210523229419</v>
+        <v>2.888644735453239</v>
       </c>
       <c r="G4">
-        <v>8.649094232744789</v>
+        <v>38.92092404735154</v>
       </c>
       <c r="H4">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I4">
-        <v>48.03525655679925</v>
+        <v>216.1586545055965</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>39.58008126447849</v>
+        <v>178.1103656901531</v>
       </c>
       <c r="C5">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D5">
-        <v>1.786393306118393</v>
+        <v>8.038769877532767</v>
       </c>
       <c r="E5">
-        <v>1.265496045530767</v>
+        <v>5.694732204888456</v>
       </c>
       <c r="F5">
-        <v>0.4762640065621827</v>
+        <v>2.143188029529822</v>
       </c>
       <c r="G5">
-        <v>5.596472738834866</v>
+        <v>25.18412732475689</v>
       </c>
       <c r="H5">
-        <v>0.1285012404021437</v>
+        <v>0.5782555818096466</v>
       </c>
       <c r="I5">
-        <v>48.83965123219964</v>
+        <v>219.7784305448983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>47.48690353798639</v>
+        <v>213.6910659209387</v>
       </c>
       <c r="C6">
-        <v>0.007331268931119053</v>
+        <v>0.03299071019003572</v>
       </c>
       <c r="D6">
-        <v>1.637527197275193</v>
+        <v>7.368872387738366</v>
       </c>
       <c r="E6">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F6">
-        <v>0.3779051356417319</v>
+        <v>1.700573110387793</v>
       </c>
       <c r="G6">
-        <v>3.307006618402419</v>
+        <v>14.88152978281088</v>
       </c>
       <c r="H6">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I6">
-        <v>53.74689303613341</v>
+        <v>241.8610186626003</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>41.18902765734348</v>
+        <v>185.3506244580455</v>
       </c>
       <c r="C7">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D7">
-        <v>1.587905160994125</v>
+        <v>7.14557322447357</v>
       </c>
       <c r="E7">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F7">
-        <v>0.2174248725609964</v>
+        <v>0.9784119265244839</v>
       </c>
       <c r="G7">
-        <v>2.543851244924939</v>
+        <v>11.44733060216222</v>
       </c>
       <c r="H7">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I7">
-        <v>47.00067522143345</v>
+        <v>211.5030384964504</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>32.86847631138457</v>
+        <v>147.9081434012305</v>
       </c>
       <c r="C8">
-        <v>0.005776151279063496</v>
+        <v>0.02599268075578573</v>
       </c>
       <c r="D8">
-        <v>0.8435746167781298</v>
+        <v>3.796085775501584</v>
       </c>
       <c r="E8">
-        <v>1.183851139367492</v>
+        <v>5.327330127153715</v>
       </c>
       <c r="F8">
-        <v>0.2484855686411388</v>
+        <v>1.118185058885125</v>
       </c>
       <c r="G8">
-        <v>3.052621493909928</v>
+        <v>13.73679672259466</v>
       </c>
       <c r="H8">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I8">
-        <v>38.26703590156139</v>
+        <v>172.2016615570262</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>28.86909527769161</v>
+        <v>129.9109287496123</v>
       </c>
       <c r="C9">
-        <v>0.008886386583174609</v>
+        <v>0.03998873962428573</v>
       </c>
       <c r="D9">
-        <v>0.9924407256213293</v>
+        <v>4.465983265295983</v>
       </c>
       <c r="E9">
-        <v>1.796187935592057</v>
+        <v>8.082845710164252</v>
       </c>
       <c r="F9">
-        <v>0.150126697720688</v>
+        <v>0.675570139743096</v>
       </c>
       <c r="G9">
-        <v>4.324547116372394</v>
+        <v>19.46046202367577</v>
       </c>
       <c r="H9">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I9">
-        <v>36.17340944968179</v>
+        <v>162.7803425235681</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>25.42135300726667</v>
+        <v>114.3960885327</v>
       </c>
       <c r="C10">
-        <v>0.003776714297849208</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D10">
-        <v>0.7443305442159964</v>
+        <v>3.349487448971985</v>
       </c>
       <c r="E10">
-        <v>1.102206233204217</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F10">
-        <v>0.1449499150406643</v>
+        <v>0.6522746176829893</v>
       </c>
       <c r="G10">
-        <v>2.289466120432444</v>
+        <v>10.302597541946</v>
       </c>
       <c r="H10">
-        <v>0.09637593030160779</v>
+        <v>0.4336916863572351</v>
       </c>
       <c r="I10">
-        <v>29.80245846475945</v>
+        <v>134.1110630914175</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>14.34260784496781</v>
+        <v>64.54173530235514</v>
       </c>
       <c r="C11">
-        <v>0.001777277316634922</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D11">
-        <v>0.2481101814053323</v>
+        <v>1.116495816323996</v>
       </c>
       <c r="E11">
-        <v>0.7348041554694774</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F11">
-        <v>0.1294195670005931</v>
+        <v>0.5823880515026688</v>
       </c>
       <c r="G11">
-        <v>1.271925622462469</v>
+        <v>5.72366530108111</v>
       </c>
       <c r="H11">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I11">
-        <v>16.80895792387366</v>
+        <v>75.64031065743146</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>9.837557944945875</v>
+        <v>44.26901075225638</v>
       </c>
       <c r="C12">
-        <v>0.001777277316634922</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D12">
-        <v>0.1984881451242657</v>
+        <v>0.8931966530591963</v>
       </c>
       <c r="E12">
-        <v>0.2857571715714636</v>
+        <v>1.285907272071587</v>
       </c>
       <c r="F12">
-        <v>0.06212139216028471</v>
+        <v>0.2795462647212812</v>
       </c>
       <c r="G12">
-        <v>1.017540497969976</v>
+        <v>4.578932240864887</v>
       </c>
       <c r="H12">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I12">
-        <v>11.43536773918903</v>
+        <v>51.45915482635061</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>6.068026395947923</v>
+        <v>27.30611878176563</v>
       </c>
       <c r="C13">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D13">
-        <v>0.04962203628106641</v>
+        <v>0.2232991632647991</v>
       </c>
       <c r="F13">
-        <v>0.05694460948026097</v>
+        <v>0.2562507426611744</v>
       </c>
       <c r="G13">
-        <v>0.763155373477482</v>
+        <v>3.434199180648665</v>
       </c>
       <c r="H13">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I13">
-        <v>6.955366187889056</v>
+        <v>31.29914784550073</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>4.918778972472937</v>
+        <v>22.13450537612819</v>
       </c>
       <c r="C14">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D14">
-        <v>0.2481101814053323</v>
+        <v>1.116495816323996</v>
       </c>
       <c r="F14">
-        <v>0.07247495752033216</v>
+        <v>0.3261373088414947</v>
       </c>
       <c r="G14">
-        <v>0.763155373477482</v>
+        <v>3.434199180648665</v>
       </c>
       <c r="H14">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I14">
-        <v>6.036644231957834</v>
+        <v>27.16489904381023</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>3.677591755119951</v>
+        <v>16.54916289803978</v>
       </c>
       <c r="C15">
-        <v>0.001110798322896826</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D15">
-        <v>0.09924407256213283</v>
+        <v>0.4465983265295981</v>
       </c>
       <c r="F15">
-        <v>0.04659104412021351</v>
+        <v>0.2096596985409608</v>
       </c>
       <c r="G15">
-        <v>1.526310746954964</v>
+        <v>6.868398361297331</v>
       </c>
       <c r="I15">
-        <v>5.350848417080158</v>
+        <v>24.0788178768607</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.171922888790957</v>
+        <v>14.27365299955931</v>
       </c>
       <c r="C16">
-        <v>0.001110798322896826</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D16">
-        <v>0.09924407256213283</v>
+        <v>0.4465983265295981</v>
       </c>
       <c r="E16">
-        <v>0.2041122654081883</v>
+        <v>0.9185051943368472</v>
       </c>
       <c r="F16">
-        <v>0.0414142614401898</v>
+        <v>0.186364176480854</v>
       </c>
       <c r="G16">
-        <v>1.271925622462469</v>
+        <v>5.72366530108111</v>
       </c>
       <c r="I16">
-        <v>4.789729908986834</v>
+        <v>21.55378459044076</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>6.068026395947923</v>
+        <v>27.30611878176563</v>
       </c>
       <c r="C17">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D17">
-        <v>0.3969762902485313</v>
+        <v>1.786393306118393</v>
       </c>
       <c r="E17">
-        <v>0.04082245308163764</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F17">
-        <v>0.0828285228803796</v>
+        <v>0.372728352961708</v>
       </c>
       <c r="G17">
-        <v>1.271925622462469</v>
+        <v>5.72366530108111</v>
       </c>
       <c r="I17">
-        <v>7.861912242608418</v>
+        <v>35.37860509173785</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>20.22675465315974</v>
+        <v>91.02039593921879</v>
       </c>
       <c r="C18">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D18">
-        <v>1.141306834464528</v>
+        <v>5.135880755090374</v>
       </c>
       <c r="E18">
-        <v>0.3265796246531011</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F18">
-        <v>0.2536623513211625</v>
+        <v>1.141480580945231</v>
       </c>
       <c r="G18">
-        <v>4.833317365357381</v>
+        <v>21.74992814410822</v>
       </c>
       <c r="H18">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I18">
-        <v>26.79968292098739</v>
+        <v>120.5985731444432</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>32.08698806342157</v>
+        <v>144.3914462853971</v>
       </c>
       <c r="C19">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D19">
-        <v>1.290172943307728</v>
+        <v>5.805778244884772</v>
       </c>
       <c r="E19">
-        <v>1.75536548251042</v>
+        <v>7.899144671296883</v>
       </c>
       <c r="F19">
-        <v>0.4296729624419692</v>
+        <v>1.933528330988861</v>
       </c>
       <c r="G19">
-        <v>7.377168610282316</v>
+        <v>33.19725874627046</v>
       </c>
       <c r="H19">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I19">
-        <v>42.98911114476687</v>
+        <v>193.4510001514509</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>38.9824726042715</v>
+        <v>175.4211267192217</v>
       </c>
       <c r="C20">
-        <v>0.003776714297849208</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D20">
-        <v>1.042062761902395</v>
+        <v>4.689282428560777</v>
       </c>
       <c r="E20">
-        <v>1.551253217102231</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F20">
-        <v>0.3364908742015421</v>
+        <v>1.514208933906939</v>
       </c>
       <c r="G20">
-        <v>5.596472738834866</v>
+        <v>25.18412732475689</v>
       </c>
       <c r="I20">
-        <v>47.51252891061038</v>
+        <v>213.8063800977467</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>42.01648580224545</v>
+        <v>189.0741861101046</v>
       </c>
       <c r="C21">
-        <v>0.0051096722853254</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D21">
-        <v>1.68714923355626</v>
+        <v>7.592171551003167</v>
       </c>
       <c r="E21">
-        <v>1.265496045530767</v>
+        <v>5.694732204888456</v>
       </c>
       <c r="F21">
-        <v>0.4037890490418505</v>
+        <v>1.817050720688328</v>
       </c>
       <c r="G21">
-        <v>6.868398361297331</v>
+        <v>30.90779262583798</v>
       </c>
       <c r="H21">
-        <v>0.1445638954524117</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I21">
-        <v>52.3909920594094</v>
+        <v>235.7594642673423</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>37.00576703589451</v>
+        <v>166.5259516615253</v>
       </c>
       <c r="C22">
-        <v>0.007109109266539687</v>
+        <v>0.03199099169942859</v>
       </c>
       <c r="D22">
-        <v>2.183369596366924</v>
+        <v>9.825163183651153</v>
       </c>
       <c r="E22">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F22">
-        <v>0.6626281830430368</v>
+        <v>2.981826823693664</v>
       </c>
       <c r="G22">
-        <v>15.51749259404212</v>
+        <v>69.82871667318956</v>
       </c>
       <c r="H22">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I22">
-        <v>56.50200091893678</v>
+        <v>254.2590041352155</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>30.89177074300758</v>
+        <v>139.0129683435342</v>
       </c>
       <c r="C23">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D23">
-        <v>1.042062761902395</v>
+        <v>4.689282428560777</v>
       </c>
       <c r="E23">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F23">
-        <v>0.6988656618032026</v>
+        <v>3.144895478114413</v>
       </c>
       <c r="G23">
-        <v>19.84203971041454</v>
+        <v>89.28917869686528</v>
       </c>
       <c r="H23">
-        <v>0.1285012404021437</v>
+        <v>0.5782555818096466</v>
       </c>
       <c r="I23">
-        <v>53.54859916868033</v>
+        <v>240.9686962590614</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>28.73118558687462</v>
+        <v>129.2903351409358</v>
       </c>
       <c r="C24">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D24">
-        <v>1.190928870745595</v>
+        <v>5.359179918355178</v>
       </c>
       <c r="E24">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F24">
-        <v>0.6678049657230605</v>
+        <v>3.005122345753772</v>
       </c>
       <c r="G24">
-        <v>23.65781657780192</v>
+        <v>106.4601746001087</v>
       </c>
       <c r="H24">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I24">
-        <v>55.23258587446537</v>
+        <v>248.5466364350942</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>30.84580084606861</v>
+        <v>138.8061038073087</v>
       </c>
       <c r="C25">
-        <v>0.008664226918595246</v>
+        <v>0.03898902113367859</v>
       </c>
       <c r="D25">
-        <v>1.439039052150926</v>
+        <v>6.475675734679167</v>
       </c>
       <c r="E25">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F25">
-        <v>0.5487389640825147</v>
+        <v>2.469325338371316</v>
       </c>
       <c r="G25">
-        <v>24.42097195127942</v>
+        <v>109.8943737807573</v>
       </c>
       <c r="H25">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I25">
-        <v>58.218194116428</v>
+        <v>261.9818735239259</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>34.33951301343257</v>
+        <v>154.5278085604465</v>
       </c>
       <c r="C26">
-        <v>0.01044150423523016</v>
+        <v>0.04698676905853574</v>
       </c>
       <c r="D26">
-        <v>1.885637378680525</v>
+        <v>8.485368204062357</v>
       </c>
       <c r="E26">
-        <v>0.8572715147143906</v>
+        <v>3.857721816214759</v>
       </c>
       <c r="F26">
-        <v>0.6419210523229419</v>
+        <v>2.888644735453239</v>
       </c>
       <c r="G26">
-        <v>22.64027607983194</v>
+        <v>101.8812423592438</v>
       </c>
       <c r="H26">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I26">
-        <v>60.43931116341867</v>
+        <v>271.9769002353841</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>33.92578394098157</v>
+        <v>152.666027734417</v>
       </c>
       <c r="C27">
-        <v>0.009552865576912706</v>
+        <v>0.04298789509610717</v>
       </c>
       <c r="D27">
-        <v>1.736771269837326</v>
+        <v>7.815470714267967</v>
       </c>
       <c r="E27">
-        <v>0.7756266085511154</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F27">
-        <v>0.6470978350029656</v>
+        <v>2.911940257513345</v>
       </c>
       <c r="G27">
-        <v>15.51749259404212</v>
+        <v>69.82871667318956</v>
       </c>
       <c r="H27">
-        <v>0.2730651358545554</v>
+        <v>1.228793111345499</v>
       </c>
       <c r="I27">
-        <v>52.88539024984657</v>
+        <v>237.9842561243095</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>35.39682064302954</v>
+        <v>159.2856928936329</v>
       </c>
       <c r="C28">
-        <v>0.009330705912333339</v>
+        <v>0.04198817660550002</v>
       </c>
       <c r="D28">
-        <v>1.885637378680525</v>
+        <v>8.485368204062357</v>
       </c>
       <c r="E28">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F28">
-        <v>0.6263907042828708</v>
+        <v>2.818758169272917</v>
       </c>
       <c r="G28">
-        <v>19.07888433693703</v>
+        <v>85.8549795162167</v>
       </c>
       <c r="H28">
-        <v>0.1124385853518758</v>
+        <v>0.5059736340834409</v>
       </c>
       <c r="I28">
-        <v>58.08924122815348</v>
+        <v>261.4015855266907</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>33.09832579607956</v>
+        <v>148.942466082358</v>
       </c>
       <c r="C29">
-        <v>0.007997747924857149</v>
+        <v>0.03598986566185716</v>
       </c>
       <c r="D29">
-        <v>1.68714923355626</v>
+        <v>7.592171551003167</v>
       </c>
       <c r="E29">
-        <v>1.102206233204217</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F29">
-        <v>0.4296729624419692</v>
+        <v>1.933528330988861</v>
       </c>
       <c r="G29">
-        <v>15.51749259404212</v>
+        <v>69.82871667318956</v>
       </c>
       <c r="H29">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I29">
-        <v>51.92315784250032</v>
+        <v>233.6542102912514</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>37.6493455930405</v>
+        <v>169.4220551686821</v>
       </c>
       <c r="C30">
-        <v>0.003554554633269843</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D30">
-        <v>1.935259414961592</v>
+        <v>8.708667367327163</v>
       </c>
       <c r="E30">
-        <v>0.7756266085511154</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F30">
-        <v>0.414142614401898</v>
+        <v>1.863641764808541</v>
       </c>
       <c r="G30">
-        <v>14.75433722056463</v>
+        <v>66.39451749254091</v>
       </c>
       <c r="H30">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I30">
-        <v>55.56439131625354</v>
+        <v>250.0397609231409</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>36.68397775732151</v>
+        <v>165.0778999079468</v>
       </c>
       <c r="C31">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D31">
-        <v>0.8435746167781298</v>
+        <v>3.796085775501584</v>
       </c>
       <c r="E31">
-        <v>1.469608310938955</v>
+        <v>6.6132373992253</v>
       </c>
       <c r="F31">
-        <v>0.2174248725609964</v>
+        <v>0.9784119265244839</v>
       </c>
       <c r="G31">
-        <v>11.44733060216222</v>
+        <v>51.51298770972996</v>
       </c>
       <c r="I31">
-        <v>50.66236047909096</v>
+        <v>227.9806221559093</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>32.63862682668957</v>
+        <v>146.8738207201031</v>
       </c>
       <c r="C32">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D32">
-        <v>1.091684798183462</v>
+        <v>4.912581591825576</v>
       </c>
       <c r="E32">
-        <v>1.714543029428781</v>
+        <v>7.715443632429518</v>
       </c>
       <c r="F32">
-        <v>0.2277784379210439</v>
+        <v>1.025002970644698</v>
       </c>
       <c r="G32">
-        <v>8.903479357237286</v>
+        <v>40.06565710756779</v>
       </c>
       <c r="I32">
-        <v>44.57811188644137</v>
+        <v>200.6015034889862</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>26.01896166747366</v>
+        <v>117.0853275036314</v>
       </c>
       <c r="C33">
-        <v>0.003554554633269843</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D33">
-        <v>1.141306834464528</v>
+        <v>5.135880755090374</v>
       </c>
       <c r="E33">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F33">
-        <v>0.1294195670005931</v>
+        <v>0.5823880515026688</v>
       </c>
       <c r="G33">
-        <v>3.815776867387406</v>
+        <v>17.17099590324332</v>
       </c>
       <c r="I33">
-        <v>32.53780534881678</v>
+        <v>146.4201240696754</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>20.50257403479374</v>
+        <v>92.26158315657179</v>
       </c>
       <c r="C34">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D34">
-        <v>0.6947085079349303</v>
+        <v>3.126188285707185</v>
       </c>
       <c r="E34">
-        <v>1.183851139367492</v>
+        <v>5.327330127153715</v>
       </c>
       <c r="F34">
-        <v>0.06729817484030842</v>
+        <v>0.3028417867813879</v>
       </c>
       <c r="G34">
-        <v>3.561391742894912</v>
+        <v>16.0262628430271</v>
       </c>
       <c r="I34">
-        <v>26.01182303681259</v>
+        <v>117.0532036656566</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>13.46917980312682</v>
+        <v>60.61130911407071</v>
       </c>
       <c r="C35">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D35">
-        <v>0.3473542539674652</v>
+        <v>1.563094142853593</v>
       </c>
       <c r="E35">
-        <v>0.8164490616327532</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F35">
-        <v>0.1087124362804982</v>
+        <v>0.489205963262242</v>
       </c>
       <c r="G35">
-        <v>5.342087614342371</v>
+        <v>24.03939426454065</v>
       </c>
       <c r="I35">
-        <v>20.08533828700196</v>
+        <v>90.38402229150883</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>9.653678357189873</v>
+        <v>43.44155260735441</v>
       </c>
       <c r="C36">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D36">
-        <v>0.2977322176863988</v>
+        <v>1.339794979588794</v>
       </c>
       <c r="E36">
-        <v>0.3265796246531011</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F36">
-        <v>0.07765174020035588</v>
+        <v>0.3494328309016013</v>
       </c>
       <c r="G36">
-        <v>2.798236369417433</v>
+        <v>12.59206366237844</v>
       </c>
       <c r="H36">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I36">
-        <v>13.17082960285575</v>
+        <v>59.26873321285083</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>5.838176911252924</v>
+        <v>26.27179610063816</v>
       </c>
       <c r="C37">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="E37">
-        <v>0.04082245308163764</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F37">
-        <v>0.07765174020035588</v>
+        <v>0.3494328309016013</v>
       </c>
       <c r="G37">
-        <v>3.052621493909928</v>
+        <v>13.73679672259466</v>
       </c>
       <c r="I37">
-        <v>9.009939077438583</v>
+        <v>40.54472584847361</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>4.137290724509945</v>
+        <v>18.61780826029474</v>
       </c>
       <c r="C38">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D38">
-        <v>0.1488661088431994</v>
+        <v>0.6698974897943972</v>
       </c>
       <c r="E38">
-        <v>0.04082245308163764</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F38">
-        <v>0.0828285228803796</v>
+        <v>0.372728352961708</v>
       </c>
       <c r="G38">
-        <v>1.017540497969976</v>
+        <v>4.578932240864887</v>
       </c>
       <c r="I38">
-        <v>5.428681265272614</v>
+        <v>24.42906569372675</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>2.850133610217963</v>
+        <v>12.82560124598083</v>
       </c>
       <c r="C39">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D39">
-        <v>0.2481101814053323</v>
+        <v>1.116495816323996</v>
       </c>
       <c r="F39">
-        <v>0.01035356536004745</v>
+        <v>0.0465910441202135</v>
       </c>
       <c r="G39">
-        <v>2.543851244924939</v>
+        <v>11.44733060216222</v>
       </c>
       <c r="I39">
-        <v>5.65289292123744</v>
+        <v>25.43801814556847</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>2.29849484694997</v>
+        <v>10.34322681127486</v>
       </c>
       <c r="C40">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D40">
-        <v>0.04962203628106641</v>
+        <v>0.2232991632647991</v>
       </c>
       <c r="E40">
-        <v>0.2041122654081883</v>
+        <v>0.9185051943368472</v>
       </c>
       <c r="F40">
-        <v>0.04659104412021351</v>
+        <v>0.2096596985409608</v>
       </c>
       <c r="G40">
-        <v>1.271925622462469</v>
+        <v>5.72366530108111</v>
       </c>
       <c r="I40">
-        <v>3.871634453880224</v>
+        <v>17.42235504246101</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>6.068026395947923</v>
+        <v>27.30611878176563</v>
       </c>
       <c r="C41">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D41">
-        <v>0.1984881451242657</v>
+        <v>0.8931966530591963</v>
       </c>
       <c r="E41">
-        <v>0.122467359244913</v>
+        <v>0.5511031166021083</v>
       </c>
       <c r="F41">
-        <v>0.06729817484030842</v>
+        <v>0.3028417867813879</v>
       </c>
       <c r="G41">
-        <v>1.017540497969976</v>
+        <v>4.578932240864887</v>
       </c>
       <c r="I41">
-        <v>7.474709211785703</v>
+        <v>33.63619145303564</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>16.18140372252778</v>
+        <v>72.81631675137503</v>
       </c>
       <c r="C42">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D42">
-        <v>0.8931966530591963</v>
+        <v>4.019384938766383</v>
       </c>
       <c r="E42">
-        <v>0.4490469838980143</v>
+        <v>2.020711427541063</v>
       </c>
       <c r="F42">
-        <v>0.2174248725609964</v>
+        <v>0.9784119265244839</v>
       </c>
       <c r="G42">
-        <v>3.815776867387406</v>
+        <v>17.17099590324332</v>
       </c>
       <c r="I42">
-        <v>21.55707125909797</v>
+        <v>97.00682066594088</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>26.57060043074165</v>
+        <v>119.5677019383374</v>
       </c>
       <c r="C43">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D43">
-        <v>1.042062761902395</v>
+        <v>4.689282428560777</v>
       </c>
       <c r="E43">
-        <v>1.551253217102231</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F43">
-        <v>0.450380093162064</v>
+        <v>2.026710419229288</v>
       </c>
       <c r="G43">
-        <v>7.122783485789824</v>
+        <v>32.0525256860542</v>
       </c>
       <c r="I43">
-        <v>36.73841294668564</v>
+        <v>165.3228582600854</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>37.7872552838575</v>
+        <v>170.0426487773588</v>
       </c>
       <c r="C44">
-        <v>0.002221596645793652</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D44">
-        <v>0.8435746167781298</v>
+        <v>3.796085775501584</v>
       </c>
       <c r="E44">
-        <v>1.551253217102231</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F44">
-        <v>0.2381320032810913</v>
+        <v>1.071594014764911</v>
       </c>
       <c r="G44">
-        <v>5.342087614342371</v>
+        <v>24.03939426454065</v>
       </c>
       <c r="H44">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I44">
-        <v>45.79664964210765</v>
+        <v>206.0849233894845</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>36.22427878793151</v>
+        <v>163.0092545456918</v>
       </c>
       <c r="C45">
-        <v>0.007109109266539687</v>
+        <v>0.03199099169942859</v>
       </c>
       <c r="D45">
-        <v>1.240550907026661</v>
+        <v>5.582479081619974</v>
       </c>
       <c r="E45">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F45">
-        <v>0.3986122663618268</v>
+        <v>1.793755198628221</v>
       </c>
       <c r="G45">
-        <v>9.666634730714762</v>
+        <v>43.49985628821644</v>
       </c>
       <c r="H45">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I45">
-        <v>48.51559304434866</v>
+        <v>218.3201686995691</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>34.20160332261555</v>
+        <v>153.90721495177</v>
       </c>
       <c r="C46">
-        <v>0.004443193291587304</v>
+        <v>0.01999436981214286</v>
       </c>
       <c r="D46">
-        <v>1.339794979588794</v>
+        <v>6.029077408149574</v>
       </c>
       <c r="E46">
-        <v>1.306318498612405</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F46">
-        <v>0.5280318333624199</v>
+        <v>2.37614325013089</v>
       </c>
       <c r="G46">
-        <v>12.97364134911718</v>
+        <v>58.38138607102731</v>
       </c>
       <c r="H46">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I46">
-        <v>50.418083796789</v>
+        <v>226.8813770855505</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>26.47866063686365</v>
+        <v>119.1539728658864</v>
       </c>
       <c r="C47">
-        <v>0.007109109266539687</v>
+        <v>0.03199099169942859</v>
       </c>
       <c r="D47">
-        <v>0.9924407256213293</v>
+        <v>4.465983265295983</v>
       </c>
       <c r="E47">
-        <v>1.102206233204217</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F47">
-        <v>0.6522746176829893</v>
+        <v>2.935235779573452</v>
       </c>
       <c r="G47">
-        <v>13.99118184708716</v>
+        <v>62.96031831189222</v>
       </c>
       <c r="H47">
-        <v>0.2409398257540194</v>
+        <v>1.084229215893087</v>
       </c>
       <c r="I47">
-        <v>43.4648129954799</v>
+        <v>195.5916584796596</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>29.23685445320362</v>
+        <v>131.5658450394162</v>
       </c>
       <c r="C48">
-        <v>0.008442067254015879</v>
+        <v>0.03798930264307145</v>
       </c>
       <c r="D48">
-        <v>1.68714923355626</v>
+        <v>7.592171551003167</v>
       </c>
       <c r="E48">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F48">
-        <v>0.5487389640825147</v>
+        <v>2.469325338371316</v>
       </c>
       <c r="G48">
-        <v>10.68417522868474</v>
+        <v>48.0787885290813</v>
       </c>
       <c r="H48">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I48">
-        <v>43.17722413084098</v>
+        <v>194.2975085887843</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>30.84580084606861</v>
+        <v>138.8061038073087</v>
       </c>
       <c r="C49">
-        <v>0.008664226918595246</v>
+        <v>0.03898902113367859</v>
       </c>
       <c r="D49">
-        <v>1.439039052150926</v>
+        <v>6.475675734679167</v>
       </c>
       <c r="E49">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F49">
-        <v>0.5487389640825147</v>
+        <v>2.469325338371316</v>
       </c>
       <c r="G49">
-        <v>24.42097195127942</v>
+        <v>109.8943737807573</v>
       </c>
       <c r="H49">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I49">
-        <v>58.218194116428</v>
+        <v>261.9818735239259</v>
       </c>
     </row>
   </sheetData>
